--- a/COROS.xlsx
+++ b/COROS.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cf1cc8aeed3765b8/Escritorio/GUIADOR IDMJI/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cf1cc8aeed3765b8/Escritorio/GUIADOR PLUS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{314C5545-BE40-4C84-8AA9-3F85F9C8A3A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E105507C-E8A6-4EC5-9124-FBD98C1D9CE1}"/>
+  <xr:revisionPtr revIDLastSave="233" documentId="8_{314C5545-BE40-4C84-8AA9-3F85F9C8A3A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B85B5CC3-47C3-4616-98BA-BD766006A797}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{4C5E5B54-A3CE-443D-AEE2-310B67BD4708}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$B$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$A$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,65 +39,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="207">
   <si>
     <t>TITULO</t>
   </si>
   <si>
-    <t xml:space="preserve"> POBRE PEREGRINO</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ALABAD, BENDECID A JEHOVÁ</t>
-  </si>
-  <si>
-    <t>ALABA, ALMA MÍA, A JEHOVÁ</t>
-  </si>
-  <si>
     <t>ALGUIEN ESTÁ AQUÍ</t>
   </si>
   <si>
-    <t xml:space="preserve"> ASÍ DICE JESÚS</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> DESPIERTATE, SION</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ESTE ES EL CRISTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> EN LA IGLESIA DE DIOS SE SIENTE GOZO</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> YA QUE HAS PUESTO TU MANO EN EL ARADO</t>
-  </si>
-  <si>
     <t>YO TENGO UN BARCO</t>
   </si>
   <si>
-    <t xml:space="preserve"> YO QUIERO MÁS DE CRISTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> EL GOZO DEL SEÑOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ALABARÉ A MI SEÑOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> VEREMOS EN LAS NUBES AL SEÑOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ¿CUÁN GLORIOSA SERÁ LA MAÑANA!</t>
-  </si>
-  <si>
     <t>JESÚS ESTÁ AQUÍ</t>
   </si>
   <si>
-    <t xml:space="preserve"> CUANDO SUENE LA FINAL TROMPETA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> DIOS ESTÁ AQUÍ</t>
-  </si>
-  <si>
     <t>DESCIENDE AQUÍ</t>
   </si>
   <si>
@@ -116,33 +71,15 @@
     <t>VARONES GALILEOS</t>
   </si>
   <si>
-    <t xml:space="preserve"> YO VIVO, SEÑOR, PORQUE TÚ VIVES</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> YO SOY TESTIGO</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> YO TENGO UN CRISTO VIVO</t>
-  </si>
-  <si>
     <t>YO ASCENDERÉ</t>
   </si>
   <si>
     <t>YO SÉ QUE AQUÍ ESTÁ</t>
   </si>
   <si>
-    <t xml:space="preserve"> LUCAS 21</t>
-  </si>
-  <si>
     <t>DEMOS CON ALEGRÍA</t>
   </si>
   <si>
-    <t xml:space="preserve"> PERMANENTE ALABANZA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> YO TENGO GRAN GOZO</t>
-  </si>
-  <si>
     <t>MI PENSAMIENTO ERES TÚ, SEÑOR</t>
   </si>
   <si>
@@ -152,15 +89,6 @@
     <t>LOOR A TI</t>
   </si>
   <si>
-    <t xml:space="preserve"> BENDECIRÉ AL SEÑOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> EXALTARÉ A MI DIOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> TE ALABARÁN, OH JEHOVÁ!</t>
-  </si>
-  <si>
     <t>CON MIS LABIOS</t>
   </si>
   <si>
@@ -170,318 +98,66 @@
     <t>BENDITO EL SEÑOR</t>
   </si>
   <si>
-    <t xml:space="preserve"> HAY MOMENTOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> SOLO AL SEÑOR JEHOVÁ ALABARE</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ES MEJOR NO PECAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> CRISTO ES LA PEÑA DE HOREB</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> EXALTADO</t>
-  </si>
-  <si>
     <t>TUYA ES LA GLORIA</t>
   </si>
   <si>
-    <t xml:space="preserve"> BENDITO DIOS</t>
-  </si>
-  <si>
     <t>POR SIEMPRE TE ALABARÉ</t>
   </si>
   <si>
     <t>AVÍVANOS, SEÑOR</t>
   </si>
   <si>
-    <t xml:space="preserve"> ¿NO SABES, TÚ, PECADOR?</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> AVIVAMIENTO HAY EN MI</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> BENDICE, ALMA MÍA</t>
-  </si>
-  <si>
-    <t>¡OH DIOS! MI SOBERANO REY</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> GLORIA Y MAJESTAD</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> TE ALABARÉ, SEÑOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> AMOR INCONDICIONAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> GRATITUD Y COMPROMISO</t>
-  </si>
-  <si>
     <t>OFRENDA Y DEVOCIÓN</t>
   </si>
   <si>
-    <t xml:space="preserve"> BUENO ES ALABARTE, ¡OH JEHOVÁ!</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> LO QUE RESPIRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> DONDE ESTÁ EL ESPÍRITU DE DIOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> YO SÉ QUE ESTÁS AQUÍ, SEÑOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> SATÚRAME, SEÑOR, CON TU ESPÍRITU</t>
-  </si>
-  <si>
     <t>SOLO DIOS HACE AL HOMBRE FELIZ</t>
   </si>
   <si>
-    <t xml:space="preserve"> GRANDE ES JEHOVÁ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> TE EXALTARE, MI DIOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> PON ACEITE EN MI LÁMPARA, SEÑOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> DIOS ES NUESTRO AMPARO</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> TAL CUAL EL CIERVO BRAMA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ¡ALELUYA!</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> CANTAD VICTORIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> TODO ES POSIBLE</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> QUIERO CANTAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> SOY FELIZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> TE VENGO A DECIR</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> HAY UNA PATRIA</t>
-  </si>
-  <si>
     <t>DE CAUTIVIDAD</t>
   </si>
   <si>
     <t>BENDITO JEHOVÁ LA ROCA</t>
   </si>
   <si>
-    <t xml:space="preserve"> ¡BENDITO JEHOVÁ, DIOS DE ISRAEL!</t>
-  </si>
-  <si>
     <t>LÍBRATE DE LA IRA QUE VENDRÁ</t>
   </si>
   <si>
-    <t xml:space="preserve"> QUEMA CON FUEGO DE GLORIA</t>
-  </si>
-  <si>
     <t>¡QUÉ PRECIOSO ES!</t>
   </si>
   <si>
-    <t xml:space="preserve"> SUBIENDO VOY</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> TESTIFIQUEMOS</t>
-  </si>
-  <si>
     <t>TENME BRILLANDO, SEÑOR</t>
   </si>
   <si>
-    <t xml:space="preserve"> PRONTO VENDRA EL SEÑOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> SOY FELIZ EN LA IGLESIA DE DIOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> YA MI VIDA SE LA DEBO AL SEÑOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> VAMOS CANTANDO</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> YO TENGO UN AMIGO QUE ME AMA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> LA GLORIA BAJÓ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> LAS CALLES DE ORO</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> LA MADRUGADA</t>
-  </si>
-  <si>
     <t>LAS AGUAS DEL RÍO DEL JORDÁN</t>
   </si>
   <si>
     <t>LA GLORIA DE JEHOVÁ</t>
   </si>
   <si>
-    <t xml:space="preserve"> LAS PROMESAS DEL SEÑOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> LOS SALVADOS CANTAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> LEVÁNTATE, PUEBLO</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> LA IGLESIA ES TUYA</t>
-  </si>
-  <si>
     <t>DAME UN NUEVO CORAZÓN</t>
   </si>
   <si>
-    <t xml:space="preserve"> EN EL AÑO DEL JUBILEO</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ESTA ES LA IGLESIA DEL SEÑOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> HÁBLAME, SEÑOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> EL DADOR ALEGRE</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> DEMOS GRACIAS AL SEÑOR</t>
-  </si>
-  <si>
     <t>LOS QUE SIGUEN AL CORDERO</t>
   </si>
   <si>
     <t>LA GLORIA ES PARA EL</t>
   </si>
   <si>
-    <t xml:space="preserve"> ENGRANDECE MI ALMA AL SEÑOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> HAY UNA TIERRA NUEVA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ESTOY ALEGRE</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> HAY PERDÓN</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> UNOS BRAZOS HUMILDES</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> AMO AL SEÑOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> MARAVILLOSO ES ÉL</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ESTAMOS DE FIESTA CON JESÚS</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> EL ESPÍRITU DE DIOS SE MUEVE EN MI</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> SANTO, SANTO, SANTO DICEN LOS QUERUBINES</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ESTE AVIVAMIENTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> EL ESPÍRITU DE DIOS SE MUEVE</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> YO SIENTO PAZ Y GOZO EN MI CORAZÓN</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> NO PUEDE ESTAR TRISTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ORANDO A MI SEÑOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ¡QUE GLORIOSO ES ANDAR CON ÉL!</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ¿QUIÉN COMO TÚ, JEHOVÁ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> QUE NO SE ACABE EL GOZO</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> SOY LIBERTADO</t>
-  </si>
-  <si>
     <t>ALABAD A JEHOVÁ</t>
   </si>
   <si>
-    <t xml:space="preserve"> EN EL MONTE HOREB</t>
-  </si>
-  <si>
-    <t>COMO LAS HORAS DEL DÍA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> EN ESTA REUNIÓN CRISTO ESTÁ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> SI AQUÍ SE SIENTE GOZO</t>
-  </si>
-  <si>
     <t>TRES COSAS QUIERO YO</t>
   </si>
   <si>
-    <t xml:space="preserve"> VA BAJANDO YA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> JEHOVÁ ES MI PASTOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> SEÑOR JEHOVÁ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> SU GLORIA CUBRIÓ LOS CIELOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> TOMA, POR FAVOR, MI MAΝΟ</t>
-  </si>
-  <si>
     <t>SI ALLÁ EN EL DESIERTO</t>
   </si>
   <si>
-    <t xml:space="preserve"> SEÑOR JEHOVÁ, TÚ ESTÁS CONMIGO</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> SOLAMENTE EN CRISTO</t>
-  </si>
-  <si>
     <t>SANTIFÍCAME, SEÑOR</t>
   </si>
   <si>
     <t>SOY DEUDOR</t>
   </si>
   <si>
-    <t xml:space="preserve"> SI NO HUBIERA SIDO POR EL SEÑOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> SIN SANTIDAD NADIE VERÁ AL SEÑOR</t>
-  </si>
-  <si>
     <t>SOBRE LA PEÑA MI CASA ESTÁ</t>
   </si>
   <si>
@@ -494,51 +170,18 @@
     <t>NO A NOSOTROS, ¡OH JEHOVÁ!</t>
   </si>
   <si>
-    <t xml:space="preserve"> SI MI PUEBLO ME BUSCARE</t>
-  </si>
-  <si>
     <t>NO HAY DIOS TAN GRANDE COMO TÚ</t>
   </si>
   <si>
     <t>NOS VAMOS A GOZAR</t>
   </si>
   <si>
-    <t xml:space="preserve"> SOLO EL PODER DE DIOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> CRISTO ES LA ROCA DE PODER</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> DESPIERTAME, SEÑOR JESÚS</t>
-  </si>
-  <si>
     <t>COMO EL ARCA DE NOE</t>
   </si>
   <si>
-    <t xml:space="preserve"> CRISTO ROMPE LAS CADENAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> JEHOVÁ, TÚ ERES MI DIOS</t>
-  </si>
-  <si>
-    <t>ARDIENDO EN FUEGO</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> LA FUENTE DE ARRIBA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> LEVANTEN LA BANDERA</t>
-  </si>
-  <si>
     <t>YA ES TIEMPO, MIS HERMANOS</t>
   </si>
   <si>
-    <t xml:space="preserve"> FUEGO DEL CIELO</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> PODER NECESITAMOS</t>
-  </si>
-  <si>
     <t>ORANDO SIN CESAR VENCEREMOS</t>
   </si>
   <si>
@@ -548,115 +191,475 @@
     <t>HERMANOS, CANTEMOS</t>
   </si>
   <si>
-    <t xml:space="preserve"> SOMOS UNO EN CRISTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ENVÍAME, SEÑOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> SÍ, SALVO SOY</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> TRÁELAS, SEÑOR, A TI</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> VENID AMI</t>
-  </si>
-  <si>
     <t>SANTO ESPÍRITU LLENA MI VIDA</t>
   </si>
   <si>
-    <t xml:space="preserve"> LOS QUE CON LÁGRIMAS SEMBRARON</t>
-  </si>
-  <si>
-    <t>CRISTO VICTORIAS DA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> LIBERTAD, LIBERTAD</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> YO AMO A CRISTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> REBOSA MI ALMA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> BRILLANDO Y LUCHANDO</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ¡ALELUYA! TE ALABAMOS</t>
-  </si>
-  <si>
     <t>ALEGRÍA TENGO SIEMPRE</t>
   </si>
   <si>
-    <t xml:space="preserve"> AL CIELO VOY</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> YO ANHELO UN DÍA VER A CRISTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ÉL HIZO TANTO PARA MI</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> CRISTO CONSOLADOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> QUÉ MARAVILLA!</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> CRISTO ES MI FUERTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> PROCURA CON DILIGENCIA</t>
-  </si>
-  <si>
     <t>TÚ ERES EL CAMINO</t>
   </si>
   <si>
-    <t>CON FE MARCHEMOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> POR LA FE SALVO SOY</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> EN MI MANSIÓN</t>
-  </si>
-  <si>
     <t>SUENAN MELODÍAS EN MI SER</t>
   </si>
   <si>
     <t>SERVIRÉ A TI, SEÑOR</t>
   </si>
   <si>
-    <t xml:space="preserve"> ABOGADO TENEMOS EN CRISTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> VIENE EL DÍA</t>
-  </si>
-  <si>
     <t>CLAMA A MÍ</t>
   </si>
   <si>
-    <t xml:space="preserve"> SERÉ FELIZ</t>
-  </si>
-  <si>
     <t>¡ALELUYA, GLORIA A JESÚS!</t>
   </si>
   <si>
     <t>ÉL TRAJO GOZO A MI SER</t>
   </si>
   <si>
-    <t>NO, NUNCA CEDEREMOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ANDO CON CRISTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> CADA DÍA CON CRISTO</t>
-  </si>
-  <si>
     <t>NUMERO</t>
+  </si>
+  <si>
+    <t>POBRE PEREGRINO</t>
+  </si>
+  <si>
+    <t>ALABAD, BENDECID A JEHOVÁ</t>
+  </si>
+  <si>
+    <t>ASÍ DICE JESÚS</t>
+  </si>
+  <si>
+    <t>DESPIERTATE, SION</t>
+  </si>
+  <si>
+    <t>ESTE ES EL CRISTO</t>
+  </si>
+  <si>
+    <t>EN LA IGLESIA DE DIOS SE SIENTE GOZO</t>
+  </si>
+  <si>
+    <t>YA QUE HAS PUESTO TU MANO EN EL ARADO</t>
+  </si>
+  <si>
+    <t>YO QUIERO MÁS DE CRISTO</t>
+  </si>
+  <si>
+    <t>EL GOZO DEL SEÑOR</t>
+  </si>
+  <si>
+    <t>ALABARÉ A MI SEÑOR</t>
+  </si>
+  <si>
+    <t>VEREMOS EN LAS NUBES AL SEÑOR</t>
+  </si>
+  <si>
+    <t>DIOS ESTÁ AQUÍ</t>
+  </si>
+  <si>
+    <t>YO VIVO, SEÑOR, PORQUE TÚ VIVES</t>
+  </si>
+  <si>
+    <t>YO SOY TESTIGO</t>
+  </si>
+  <si>
+    <t>LUCAS 21</t>
+  </si>
+  <si>
+    <t>QUEMA CON FUEGO DE GLORIA</t>
+  </si>
+  <si>
+    <t>SUBIENDO VOY</t>
+  </si>
+  <si>
+    <t>TESTIFIQUEMOS</t>
+  </si>
+  <si>
+    <t>PRONTO VENDRA EL SEÑOR</t>
+  </si>
+  <si>
+    <t>SOY FELIZ EN LA IGLESIA DE DIOS</t>
+  </si>
+  <si>
+    <t>YA MI VIDA SE LA DEBO AL SEÑOR</t>
+  </si>
+  <si>
+    <t>VAMOS CANTANDO</t>
+  </si>
+  <si>
+    <t>YO TENGO UN AMIGO QUE ME AMA</t>
+  </si>
+  <si>
+    <t>LA GLORIA BAJÓ</t>
+  </si>
+  <si>
+    <t>LAS CALLES DE ORO</t>
+  </si>
+  <si>
+    <t>LA MADRUGADA</t>
+  </si>
+  <si>
+    <t>LOS SALVADOS CANTAN</t>
+  </si>
+  <si>
+    <t>LEVÁNTATE, PUEBLO</t>
+  </si>
+  <si>
+    <t>LA IGLESIA ES TUYA</t>
+  </si>
+  <si>
+    <t>EN EL AÑO DEL JUBILEO</t>
+  </si>
+  <si>
+    <t>ESTA ES LA IGLESIA DEL SEÑOR</t>
+  </si>
+  <si>
+    <t>HÁBLAME, SEÑOR</t>
+  </si>
+  <si>
+    <t>EL DADOR ALEGRE</t>
+  </si>
+  <si>
+    <t>DEMOS GRACIAS AL SEÑOR</t>
+  </si>
+  <si>
+    <t>ENGRANDECE MI ALMA AL SEÑOR</t>
+  </si>
+  <si>
+    <t>HAY UNA TIERRA NUEVA</t>
+  </si>
+  <si>
+    <t>ESTOY ALEGRE</t>
+  </si>
+  <si>
+    <t>HAY PERDÓN</t>
+  </si>
+  <si>
+    <t>UNOS BRAZOS HUMILDES</t>
+  </si>
+  <si>
+    <t>AMO AL SEÑOR</t>
+  </si>
+  <si>
+    <t>EL ESPÍRITU DE DIOS SE MUEVE EN MI</t>
+  </si>
+  <si>
+    <t>SANTO, SANTO, SANTO DICEN LOS QUERUBINES</t>
+  </si>
+  <si>
+    <t>ESTE AVIVAMIENTO</t>
+  </si>
+  <si>
+    <t>YO SIENTO PAZ Y GOZO EN MI CORAZÓN</t>
+  </si>
+  <si>
+    <t>NO PUEDE ESTAR TRISTE</t>
+  </si>
+  <si>
+    <t>ORANDO A MI SEÑOR</t>
+  </si>
+  <si>
+    <t>¡QUE GLORIOSO ES ANDAR CON ÉL!</t>
+  </si>
+  <si>
+    <t>¿QUIÉN COMO TÚ, JEHOVÁ?</t>
+  </si>
+  <si>
+    <t>QUE NO SE ACABE EL GOZO</t>
+  </si>
+  <si>
+    <t>SOY LIBERTADO</t>
+  </si>
+  <si>
+    <t>SI AQUÍ SE SIENTE GOZO</t>
+  </si>
+  <si>
+    <t>VA BAJANDO YA</t>
+  </si>
+  <si>
+    <t>JEHOVÁ ES MI PASTOR</t>
+  </si>
+  <si>
+    <t>SEÑOR JEHOVÁ</t>
+  </si>
+  <si>
+    <t>SU GLORIA CUBRIÓ LOS CIELOS</t>
+  </si>
+  <si>
+    <t>SEÑOR JEHOVÁ, TÚ ESTÁS CONMIGO</t>
+  </si>
+  <si>
+    <t>SOLAMENTE EN CRISTO</t>
+  </si>
+  <si>
+    <t>SI NO HUBIERA SIDO POR EL SEÑOR</t>
+  </si>
+  <si>
+    <t>SIN SANTIDAD NADIE VERÁ AL SEÑOR</t>
+  </si>
+  <si>
+    <t>SI MI PUEBLO ME BUSCARE</t>
+  </si>
+  <si>
+    <t>DESPIERTAME, SEÑOR JESÚS</t>
+  </si>
+  <si>
+    <t>CRISTO ROMPE LAS CADENAS</t>
+  </si>
+  <si>
+    <t>JEHOVÁ, TÚ ERES MI DIOS</t>
+  </si>
+  <si>
+    <t>LA FUENTE DE ARRIBA</t>
+  </si>
+  <si>
+    <t>FUEGO DEL CIELO</t>
+  </si>
+  <si>
+    <t>PODER NECESITAMOS</t>
+  </si>
+  <si>
+    <t>CADA DÍA CON CRISTO</t>
+  </si>
+  <si>
+    <t>ANDO CON CRISTO</t>
+  </si>
+  <si>
+    <t>SERÉ FELIZ</t>
+  </si>
+  <si>
+    <t>VIENE EL DÍA</t>
+  </si>
+  <si>
+    <t>ABOGADO TENEMOS EN CRISTO</t>
+  </si>
+  <si>
+    <t>SOY FELIZ</t>
+  </si>
+  <si>
+    <t>EN MI MANSIÓN</t>
+  </si>
+  <si>
+    <t>POR LA FE SALVO SOY</t>
+  </si>
+  <si>
+    <t>PROCURA CON DILIGENCIA</t>
+  </si>
+  <si>
+    <t>CRISTO ES MI FUERTE</t>
+  </si>
+  <si>
+    <t>CRISTO CONSOLADOR</t>
+  </si>
+  <si>
+    <t>ÉL HIZO TANTO PARA MI</t>
+  </si>
+  <si>
+    <t>YO ANHELO UN DÍA VER A CRISTO</t>
+  </si>
+  <si>
+    <t>AL CIELO VOY</t>
+  </si>
+  <si>
+    <t>¡ALELUYA! TE ALABAMOS</t>
+  </si>
+  <si>
+    <t>BRILLANDO Y LUCHANDO</t>
+  </si>
+  <si>
+    <t>REBOSA MI ALMA</t>
+  </si>
+  <si>
+    <t>LIBERTAD, LIBERTAD</t>
+  </si>
+  <si>
+    <t>LOS QUE CON LÁGRIMAS SEMBRARON</t>
+  </si>
+  <si>
+    <t>TRÁELAS, SEÑOR, A TI</t>
+  </si>
+  <si>
+    <t>SÍ, SALVO SOY</t>
+  </si>
+  <si>
+    <t>ENVÍAME, SEÑOR</t>
+  </si>
+  <si>
+    <t>SOMOS UNO EN CRISTO</t>
+  </si>
+  <si>
+    <t>HAY UNA PATRIA</t>
+  </si>
+  <si>
+    <t>TE VENGO A DECIR</t>
+  </si>
+  <si>
+    <t>QUIERO CANTAR</t>
+  </si>
+  <si>
+    <t>TODO ES POSIBLE</t>
+  </si>
+  <si>
+    <t>CANTAD VICTORIA</t>
+  </si>
+  <si>
+    <t>DIOS ES NUESTRO AMPARO</t>
+  </si>
+  <si>
+    <t>PON ACEITE EN MI LÁMPARA, SEÑOR</t>
+  </si>
+  <si>
+    <t>TE EXALTARE, MI DIOS</t>
+  </si>
+  <si>
+    <t>GRANDE ES JEHOVÁ</t>
+  </si>
+  <si>
+    <t>YO SÉ QUE ESTÁS AQUÍ, SEÑOR</t>
+  </si>
+  <si>
+    <t>DONDE ESTÁ EL ESPÍRITU DE DIOS</t>
+  </si>
+  <si>
+    <t>LO QUE RESPIRA</t>
+  </si>
+  <si>
+    <t>GRATITUD Y COMPROMISO</t>
+  </si>
+  <si>
+    <t>AMOR INCONDICIONAL</t>
+  </si>
+  <si>
+    <t>TE ALABARÉ, SEÑOR</t>
+  </si>
+  <si>
+    <t>GLORIA Y MAJESTAD</t>
+  </si>
+  <si>
+    <t>AVIVAMIENTO HAY EN MI</t>
+  </si>
+  <si>
+    <t>¿NO SABES, TÚ, PECADOR?</t>
+  </si>
+  <si>
+    <t>BENDITO DIOS</t>
+  </si>
+  <si>
+    <t>EXALTADO</t>
+  </si>
+  <si>
+    <t>CRISTO ES LA PEÑA DE HOREB</t>
+  </si>
+  <si>
+    <t>ES MEJOR NO PECAR</t>
+  </si>
+  <si>
+    <t>SOLO AL SEÑOR JEHOVÁ ALABARE</t>
+  </si>
+  <si>
+    <t>HAY MOMENTOS</t>
+  </si>
+  <si>
+    <t>EXALTARÉ A MI DIOS</t>
+  </si>
+  <si>
+    <t>BENDECIRÉ AL SEÑOR</t>
+  </si>
+  <si>
+    <t>YO TENGO GRAN GOZO</t>
+  </si>
+  <si>
+    <t>PERMANENTE ALABANZA</t>
+  </si>
+  <si>
+    <t>ALABA, ALMA MÍA, A JEHOVA</t>
+  </si>
+  <si>
+    <t>¡CUÁN GLORIOSA SERÁ LA MAÑANA!</t>
+  </si>
+  <si>
+    <t>CUANDO SUENA LA FINAL TROMPETA</t>
+  </si>
+  <si>
+    <t>YO TE UN CRISTOVIVO</t>
+  </si>
+  <si>
+    <t>¡BENDITO JEHOVÁ LA ROCA!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAS PROMESAS DEL SEÑOR </t>
+  </si>
+  <si>
+    <t>MARAVILLOZO ES ÉL</t>
+  </si>
+  <si>
+    <t>ESTAMOS DE FIESTA  CON JESÚS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EL ESPÍRITU DE DIOS SE MUEVE   </t>
+  </si>
+  <si>
+    <t>EN EL MONTE HORED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COMO LAS HORAS DEL DÍA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EN ESTA REUNIÓN CRISTO ESTÁ </t>
+  </si>
+  <si>
+    <t>TOMA, POR FAVOR, MI MANO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOLO EL PODER DE DIOS </t>
+  </si>
+  <si>
+    <t>CRISTO EL LA ROCA DE PODER</t>
+  </si>
+  <si>
+    <t>ARDIENDO EN JUEGO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LEVANTEN LAS BANDERAS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NO, NUNCA CEDEREMOS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOY FELIZ  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CON FE MARCHEMOS </t>
+  </si>
+  <si>
+    <t>¡QUÉ MARAVILLA!</t>
+  </si>
+  <si>
+    <t>YO AMO CRISTO</t>
+  </si>
+  <si>
+    <t>CRISTO VICTORIA DA</t>
+  </si>
+  <si>
+    <t>VENID A MI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¡ALELUYA!  </t>
+  </si>
+  <si>
+    <t>TALA CUAL EL CIERVO BRAMA</t>
+  </si>
+  <si>
+    <t>SATÚRAME, SEÑOR CON TU ESPÍRITU</t>
+  </si>
+  <si>
+    <t>BUENO ES ALBARTE, ¡OH JEHOVÁ!</t>
+  </si>
+  <si>
+    <t>¡OH DIOS! MI SOBERA REY</t>
+  </si>
+  <si>
+    <t>BENDICE, ALAMA MÍA</t>
+  </si>
+  <si>
+    <t>TE ALABARÁN, OH JEHOVÁ</t>
   </si>
 </sst>
 </file>
@@ -1041,19 +1044,19 @@
   <dimension ref="A1:B206"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.5703125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="45.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="76" style="2" customWidth="1"/>
     <col min="3" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>205</v>
+        <v>58</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1064,7 +1067,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -1072,7 +1075,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>2</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -1080,7 +1083,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>3</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -1088,7 +1091,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -1096,7 +1099,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>5</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -1104,7 +1107,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>6</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -1112,7 +1115,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>7</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -1120,7 +1123,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -1128,7 +1131,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -1136,7 +1139,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -1144,7 +1147,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -1152,7 +1155,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -1160,7 +1163,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -1168,7 +1171,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -1176,7 +1179,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>15</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -1184,7 +1187,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -1192,7 +1195,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>17</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -1200,7 +1203,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -1208,7 +1211,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -1216,7 +1219,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -1224,7 +1227,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -1232,7 +1235,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -1240,7 +1243,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -1248,7 +1251,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -1256,7 +1259,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -1264,7 +1267,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>26</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -1272,7 +1275,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>27</v>
+        <v>179</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -1280,7 +1283,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -1288,7 +1291,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -1296,7 +1299,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>30</v>
+        <v>73</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -1304,7 +1307,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>80</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -1312,7 +1315,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>81</v>
+        <v>180</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -1320,7 +1323,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>82</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -1328,7 +1331,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -1336,7 +1339,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>84</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
@@ -1344,7 +1347,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
@@ -1352,7 +1355,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
@@ -1360,7 +1363,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>87</v>
+        <v>28</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
@@ -1368,7 +1371,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
@@ -1376,7 +1379,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
@@ -1384,7 +1387,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
@@ -1392,7 +1395,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
@@ -1400,7 +1403,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
@@ -1408,7 +1411,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
@@ -1416,7 +1419,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
@@ -1424,7 +1427,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
@@ -1432,7 +1435,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>96</v>
+        <v>29</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
@@ -1440,7 +1443,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
@@ -1448,7 +1451,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>98</v>
+        <v>181</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
@@ -1456,7 +1459,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
@@ -1464,7 +1467,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
@@ -1472,7 +1475,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
@@ -1480,7 +1483,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>102</v>
+        <v>31</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
@@ -1488,7 +1491,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
@@ -1496,7 +1499,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
@@ -1504,7 +1507,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
@@ -1512,7 +1515,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
@@ -1520,7 +1523,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
@@ -1528,7 +1531,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>108</v>
+        <v>32</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
@@ -1536,7 +1539,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>109</v>
+        <v>33</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
@@ -1544,7 +1547,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
@@ -1552,7 +1555,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
@@ -1560,7 +1563,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
@@ -1568,7 +1571,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
@@ -1576,7 +1579,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
@@ -1584,7 +1587,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
@@ -1592,7 +1595,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>116</v>
+        <v>182</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
@@ -1600,7 +1603,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>117</v>
+        <v>183</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
@@ -1608,7 +1611,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
@@ -1616,7 +1619,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
@@ -1624,7 +1627,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
@@ -1632,7 +1635,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>121</v>
+        <v>184</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
@@ -1640,7 +1643,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
@@ -1648,7 +1651,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
@@ -1656,7 +1659,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
@@ -1664,7 +1667,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
@@ -1672,7 +1675,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
@@ -1680,7 +1683,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
@@ -1688,7 +1691,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
@@ -1696,7 +1699,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>129</v>
+        <v>34</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
@@ -1704,7 +1707,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>130</v>
+        <v>185</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
@@ -1712,7 +1715,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>131</v>
+        <v>186</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
@@ -1720,7 +1723,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>132</v>
+        <v>187</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
@@ -1728,7 +1731,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
@@ -1736,7 +1739,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>134</v>
+        <v>35</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
@@ -1744,7 +1747,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
@@ -1752,7 +1755,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>136</v>
+        <v>111</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
@@ -1760,7 +1763,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>137</v>
+        <v>112</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
@@ -1768,7 +1771,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>138</v>
+        <v>113</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
@@ -1776,7 +1779,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>139</v>
+        <v>188</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
@@ -1784,7 +1787,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>140</v>
+        <v>36</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
@@ -1792,7 +1795,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>141</v>
+        <v>114</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
@@ -1800,7 +1803,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>142</v>
+        <v>115</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
@@ -1808,7 +1811,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>143</v>
+        <v>37</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
@@ -1816,7 +1819,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>144</v>
+        <v>38</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
@@ -1824,7 +1827,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>145</v>
+        <v>116</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
@@ -1832,7 +1835,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>146</v>
+        <v>117</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
@@ -1840,7 +1843,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>147</v>
+        <v>39</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
@@ -1848,7 +1851,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>148</v>
+        <v>40</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
@@ -1856,7 +1859,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>149</v>
+        <v>41</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
@@ -1864,7 +1867,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>150</v>
+        <v>42</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
@@ -1872,7 +1875,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>151</v>
+        <v>118</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
@@ -1880,7 +1883,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>152</v>
+        <v>43</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
@@ -1888,7 +1891,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>153</v>
+        <v>44</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
@@ -1896,7 +1899,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>154</v>
+        <v>189</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
@@ -1904,7 +1907,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>155</v>
+        <v>190</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
@@ -1912,7 +1915,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>156</v>
+        <v>119</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
@@ -1920,7 +1923,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>157</v>
+        <v>45</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
@@ -1928,7 +1931,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
@@ -1936,7 +1939,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>159</v>
+        <v>121</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
@@ -1944,7 +1947,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>160</v>
+        <v>191</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
@@ -1952,7 +1955,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>161</v>
+        <v>122</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
@@ -1960,7 +1963,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>162</v>
+        <v>192</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
@@ -1968,7 +1971,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>163</v>
+        <v>46</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
@@ -1976,7 +1979,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>164</v>
+        <v>123</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
@@ -1984,7 +1987,7 @@
         <v>116</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>165</v>
+        <v>124</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
@@ -1992,7 +1995,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>166</v>
+        <v>47</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
@@ -2000,7 +2003,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>167</v>
+        <v>48</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
@@ -2008,7 +2011,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>204</v>
+        <v>125</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
@@ -2016,7 +2019,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>203</v>
+        <v>126</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
@@ -2024,7 +2027,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
@@ -2032,7 +2035,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>201</v>
+        <v>57</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
@@ -2040,7 +2043,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>200</v>
+        <v>56</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
@@ -2048,7 +2051,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>199</v>
+        <v>127</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
@@ -2056,7 +2059,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>198</v>
+        <v>55</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
@@ -2064,7 +2067,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>197</v>
+        <v>128</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
@@ -2072,7 +2075,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>196</v>
+        <v>129</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
@@ -2080,7 +2083,7 @@
         <v>128</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>76</v>
+        <v>194</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
@@ -2088,7 +2091,7 @@
         <v>129</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>195</v>
+        <v>54</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
@@ -2096,7 +2099,7 @@
         <v>130</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>194</v>
+        <v>53</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
@@ -2104,7 +2107,7 @@
         <v>131</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>193</v>
+        <v>131</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
@@ -2112,7 +2115,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>192</v>
+        <v>132</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
@@ -2120,7 +2123,7 @@
         <v>133</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
@@ -2128,7 +2131,7 @@
         <v>134</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>190</v>
+        <v>52</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
@@ -2136,7 +2139,7 @@
         <v>135</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>189</v>
+        <v>133</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
@@ -2144,7 +2147,7 @@
         <v>136</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>188</v>
+        <v>134</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
@@ -2152,7 +2155,7 @@
         <v>137</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
@@ -2160,7 +2163,7 @@
         <v>138</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>186</v>
+        <v>135</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
@@ -2168,7 +2171,7 @@
         <v>139</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>185</v>
+        <v>136</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
@@ -2176,7 +2179,7 @@
         <v>140</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>184</v>
+        <v>137</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
@@ -2184,7 +2187,7 @@
         <v>141</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>183</v>
+        <v>138</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
@@ -2192,7 +2195,7 @@
         <v>142</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>182</v>
+        <v>51</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
@@ -2200,7 +2203,7 @@
         <v>143</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>181</v>
+        <v>139</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
@@ -2208,7 +2211,7 @@
         <v>144</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>180</v>
+        <v>140</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
@@ -2216,7 +2219,7 @@
         <v>145</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>179</v>
+        <v>141</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
@@ -2224,7 +2227,7 @@
         <v>146</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
@@ -2232,7 +2235,7 @@
         <v>147</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>177</v>
+        <v>142</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
@@ -2240,7 +2243,7 @@
         <v>148</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>176</v>
+        <v>198</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
@@ -2248,7 +2251,7 @@
         <v>149</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>175</v>
+        <v>143</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
@@ -2256,7 +2259,7 @@
         <v>150</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>174</v>
+        <v>50</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
@@ -2264,7 +2267,7 @@
         <v>151</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>173</v>
+        <v>199</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
@@ -2272,7 +2275,7 @@
         <v>152</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>172</v>
+        <v>144</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
@@ -2280,7 +2283,7 @@
         <v>153</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>171</v>
+        <v>145</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
@@ -2288,7 +2291,7 @@
         <v>154</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>170</v>
+        <v>146</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
@@ -2296,7 +2299,7 @@
         <v>155</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
@@ -2304,7 +2307,7 @@
         <v>156</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>168</v>
+        <v>49</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
@@ -2312,7 +2315,7 @@
         <v>157</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>79</v>
+        <v>24</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
@@ -2320,7 +2323,7 @@
         <v>158</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>78</v>
+        <v>148</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
@@ -2328,7 +2331,7 @@
         <v>159</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>77</v>
+        <v>149</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
@@ -2336,7 +2339,7 @@
         <v>160</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>76</v>
+        <v>130</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
@@ -2344,7 +2347,7 @@
         <v>161</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>75</v>
+        <v>150</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
@@ -2352,7 +2355,7 @@
         <v>162</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>74</v>
+        <v>151</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
@@ -2360,7 +2363,7 @@
         <v>163</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>73</v>
+        <v>152</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
@@ -2368,7 +2371,7 @@
         <v>164</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>72</v>
+        <v>200</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
@@ -2376,7 +2379,7 @@
         <v>165</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>71</v>
+        <v>201</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
@@ -2384,7 +2387,7 @@
         <v>166</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>70</v>
+        <v>153</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
@@ -2392,7 +2395,7 @@
         <v>167</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>69</v>
+        <v>154</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
@@ -2400,7 +2403,7 @@
         <v>168</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>68</v>
+        <v>155</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
@@ -2408,7 +2411,7 @@
         <v>169</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>67</v>
+        <v>156</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
@@ -2416,7 +2419,7 @@
         <v>170</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>66</v>
+        <v>23</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
@@ -2424,7 +2427,7 @@
         <v>171</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>65</v>
+        <v>202</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
@@ -2432,7 +2435,7 @@
         <v>172</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>64</v>
+        <v>157</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
@@ -2440,7 +2443,7 @@
         <v>173</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>63</v>
+        <v>158</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
@@ -2448,7 +2451,7 @@
         <v>174</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>62</v>
+        <v>159</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
@@ -2456,7 +2459,7 @@
         <v>175</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>61</v>
+        <v>203</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
@@ -2464,7 +2467,7 @@
         <v>176</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
@@ -2472,7 +2475,7 @@
         <v>177</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>59</v>
+        <v>160</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
@@ -2480,7 +2483,7 @@
         <v>178</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>58</v>
+        <v>161</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
@@ -2488,7 +2491,7 @@
         <v>179</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>57</v>
+        <v>162</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
@@ -2496,7 +2499,7 @@
         <v>180</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>56</v>
+        <v>163</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
@@ -2504,7 +2507,7 @@
         <v>181</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>55</v>
+        <v>204</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
@@ -2512,7 +2515,7 @@
         <v>182</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>54</v>
+        <v>205</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
@@ -2520,7 +2523,7 @@
         <v>183</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>53</v>
+        <v>164</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
@@ -2528,7 +2531,7 @@
         <v>184</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>52</v>
+        <v>165</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
@@ -2536,7 +2539,7 @@
         <v>185</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
@@ -2544,7 +2547,7 @@
         <v>186</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
@@ -2552,7 +2555,7 @@
         <v>187</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>49</v>
+        <v>166</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
@@ -2560,7 +2563,7 @@
         <v>188</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
@@ -2568,7 +2571,7 @@
         <v>189</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>47</v>
+        <v>167</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
@@ -2576,7 +2579,7 @@
         <v>190</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>46</v>
+        <v>168</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
@@ -2584,7 +2587,7 @@
         <v>191</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>45</v>
+        <v>169</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
@@ -2592,7 +2595,7 @@
         <v>192</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>44</v>
+        <v>170</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
@@ -2600,7 +2603,7 @@
         <v>193</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>43</v>
+        <v>171</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
@@ -2608,7 +2611,7 @@
         <v>194</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
@@ -2616,7 +2619,7 @@
         <v>195</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
@@ -2624,7 +2627,7 @@
         <v>196</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
@@ -2632,7 +2635,7 @@
         <v>197</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>39</v>
+        <v>206</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
@@ -2640,7 +2643,7 @@
         <v>198</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>38</v>
+        <v>172</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
@@ -2648,7 +2651,7 @@
         <v>199</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>37</v>
+        <v>173</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
@@ -2656,7 +2659,7 @@
         <v>200</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
@@ -2664,7 +2667,7 @@
         <v>201</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
@@ -2672,7 +2675,7 @@
         <v>202</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
@@ -2680,7 +2683,7 @@
         <v>203</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>33</v>
+        <v>174</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.2">
@@ -2688,7 +2691,7 @@
         <v>204</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>32</v>
+        <v>175</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
@@ -2696,11 +2699,11 @@
         <v>205</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B1" xr:uid="{1BF3641C-85ED-427C-960F-88E9D7A450AB}"/>
+  <autoFilter ref="A1" xr:uid="{1BF3641C-85ED-427C-960F-88E9D7A450AB}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>